--- a/苟策划/数值策划的笔记.xlsx
+++ b/苟策划/数值策划的笔记.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学习！\SoulTank\苟策划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E22BBF-7C59-4735-A1AF-B53759926192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A36CFB-1C56-49F9-BADB-6B4FB5D1F941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82205EE5-383D-43A7-A409-0869EA766432}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>铁墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方炮台1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方炮台1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203mmHE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +503,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -717,6 +729,21 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>140</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
@@ -737,6 +764,21 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1500</v>
+      </c>
+      <c r="C8">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -753,6 +795,26 @@
         <v>8</v>
       </c>
       <c r="L8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>1800</v>
+      </c>
+      <c r="I9">
+        <v>85</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
         <v>0.3</v>
       </c>
     </row>
